--- a/SceneServer/tools/Xlsx/kx_monster.xlsx
+++ b/SceneServer/tools/Xlsx/kx_monster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15690"/>
+    <workbookView windowHeight="14175"/>
   </bookViews>
   <sheets>
     <sheet name="kx_monster" sheetId="2" r:id="rId1"/>
@@ -17,8 +17,30 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="AA4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>多个怪物可配置相同爆率文件，如果不配置，默认使用与怪物名相同的怪率文件</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="1036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="1038">
   <si>
     <t>idx</t>
   </si>
@@ -98,6 +120,9 @@
     <t>death_trigger</t>
   </si>
   <si>
+    <t>drop_monItem</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -183,6 +208,9 @@
   </si>
   <si>
     <t>死亡触发</t>
+  </si>
+  <si>
+    <t>爆率文件</t>
   </si>
   <si>
     <t>蜂王</t>
@@ -3138,7 +3166,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3295,6 +3323,11 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -4079,12 +4112,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z554"/>
+  <dimension ref="A1:AA554"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O24" sqref="O24"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1"/>
@@ -4108,7 +4141,7 @@
     <col min="21" max="16384" width="15.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:26">
+    <row r="1" customHeight="1" spans="1:27">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4187,162 +4220,171 @@
       <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:26">
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:27">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="N2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="R2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:26">
+    </row>
+    <row r="4" customHeight="1" spans="1:27">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="S4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:26">
@@ -4350,16 +4392,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G5" s="2">
         <v>100</v>
@@ -4403,10 +4445,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -4456,10 +4498,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -4509,10 +4551,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -4562,10 +4604,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -4621,10 +4663,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -4633,7 +4675,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G10" s="2">
         <v>200</v>
@@ -4677,10 +4719,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -4736,10 +4778,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -4766,13 +4808,13 @@
         <v>30</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P12" s="1">
         <v>1</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T12" s="1">
         <v>300</v>
@@ -4798,10 +4840,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -4828,13 +4870,13 @@
         <v>30</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P13" s="1">
         <v>1</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T13" s="1">
         <v>1900</v>
@@ -4860,10 +4902,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -4890,13 +4932,13 @@
         <v>5</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P14" s="1">
         <v>1</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T14" s="1">
         <v>2400</v>
@@ -4922,10 +4964,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -4975,10 +5017,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
@@ -5037,10 +5079,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
@@ -5090,10 +5132,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
@@ -5143,10 +5185,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -5205,10 +5247,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -5264,10 +5306,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -5323,10 +5365,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
@@ -5353,13 +5395,13 @@
         <v>30</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P22" s="1">
         <v>1</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T22" s="2">
         <v>700</v>
@@ -5385,10 +5427,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E23" s="2">
         <v>1.5</v>
@@ -5438,16 +5480,16 @@
         <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
       </c>
       <c r="F24" s="2">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="G24" s="2">
         <v>900</v>
@@ -5491,10 +5533,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
@@ -5521,13 +5563,13 @@
         <v>30</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P25" s="1">
         <v>1</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T25" s="2">
         <v>900</v>
@@ -5553,10 +5595,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
@@ -5606,10 +5648,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
@@ -5636,13 +5678,13 @@
         <v>30</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P27" s="1">
         <v>1</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T27" s="2">
         <v>1100</v>
@@ -5668,10 +5710,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D28" s="2">
         <v>2</v>
@@ -5724,10 +5766,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E29" s="2">
         <v>1</v>
@@ -5777,10 +5819,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -5836,10 +5878,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E31" s="2">
         <v>1</v>
@@ -5889,10 +5931,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E32" s="2">
         <v>1</v>
@@ -5942,10 +5984,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
@@ -5995,10 +6037,10 @@
         <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E34" s="2">
         <v>1</v>
@@ -6051,10 +6093,10 @@
         <v>31</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D35" s="2">
         <v>0</v>
@@ -6110,10 +6152,10 @@
         <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E36" s="2">
         <v>1</v>
@@ -6163,10 +6205,10 @@
         <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D37" s="2">
         <v>2</v>
@@ -6225,10 +6267,10 @@
         <v>34</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E38" s="2">
         <v>1</v>
@@ -6278,10 +6320,10 @@
         <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E39" s="2">
         <v>1</v>
@@ -6331,10 +6373,10 @@
         <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E40" s="2">
         <v>1</v>
@@ -6384,10 +6426,10 @@
         <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E41" s="2">
         <v>1</v>
@@ -6414,13 +6456,13 @@
         <v>30</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P41" s="1">
         <v>1</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T41" s="2">
         <v>2400</v>
@@ -6446,10 +6488,10 @@
         <v>38</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E42" s="2">
         <v>1</v>
@@ -6499,10 +6541,10 @@
         <v>39</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D43" s="2">
         <v>1</v>
@@ -6558,10 +6600,10 @@
         <v>40</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D44" s="2">
         <v>1</v>
@@ -6617,10 +6659,10 @@
         <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E45" s="2">
         <v>1</v>
@@ -6670,10 +6712,10 @@
         <v>42</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D46" s="2">
         <v>2</v>
@@ -6726,10 +6768,10 @@
         <v>43</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E47" s="2">
         <v>1</v>
@@ -6779,10 +6821,10 @@
         <v>44</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D48" s="2">
         <v>0</v>
@@ -6841,10 +6883,10 @@
         <v>45</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E49" s="2">
         <v>1</v>
@@ -6894,10 +6936,10 @@
         <v>46</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D50" s="2">
         <v>0</v>
@@ -6953,10 +6995,10 @@
         <v>47</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D51" s="2">
         <v>0</v>
@@ -7015,10 +7057,10 @@
         <v>48</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E52" s="2">
         <v>1</v>
@@ -7068,10 +7110,10 @@
         <v>49</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E53" s="2">
         <v>1</v>
@@ -7121,10 +7163,10 @@
         <v>50</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E54" s="2">
         <v>1</v>
@@ -7174,10 +7216,10 @@
         <v>51</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D55" s="2">
         <v>0</v>
@@ -7233,10 +7275,10 @@
         <v>52</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D56" s="2">
         <v>0</v>
@@ -7295,10 +7337,10 @@
         <v>53</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D57" s="2">
         <v>1</v>
@@ -7351,10 +7393,10 @@
         <v>54</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D58" s="2">
         <v>0</v>
@@ -7410,10 +7452,10 @@
         <v>55</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E59" s="2">
         <v>1</v>
@@ -7463,10 +7505,10 @@
         <v>56</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E60" s="2">
         <v>1</v>
@@ -7516,10 +7558,10 @@
         <v>57</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D61" s="2">
         <v>2</v>
@@ -7572,10 +7614,10 @@
         <v>58</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E62" s="2">
         <v>1</v>
@@ -7625,10 +7667,10 @@
         <v>59</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D63" s="2">
         <v>1</v>
@@ -7684,10 +7726,10 @@
         <v>60</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D64" s="2">
         <v>0</v>
@@ -7746,10 +7788,10 @@
         <v>61</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E65" s="2">
         <v>1</v>
@@ -7799,10 +7841,10 @@
         <v>62</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E66" s="2">
         <v>1</v>
@@ -7829,7 +7871,7 @@
         <v>30</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P66" s="1">
         <v>1</v>
@@ -7858,10 +7900,10 @@
         <v>63</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D67" s="2">
         <v>2</v>
@@ -7917,10 +7959,10 @@
         <v>64</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E68" s="2">
         <v>1</v>
@@ -7970,10 +8012,10 @@
         <v>65</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E69" s="2">
         <v>1</v>
@@ -8023,10 +8065,10 @@
         <v>66</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E70" s="2">
         <v>1</v>
@@ -8076,10 +8118,10 @@
         <v>67</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D71" s="2">
         <v>0</v>
@@ -8135,10 +8177,10 @@
         <v>68</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E72" s="2">
         <v>1</v>
@@ -8188,10 +8230,10 @@
         <v>69</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E73" s="2">
         <v>1.5</v>
@@ -8241,10 +8283,10 @@
         <v>70</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D74" s="2">
         <v>0</v>
@@ -8300,10 +8342,10 @@
         <v>71</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E75" s="2">
         <v>1</v>
@@ -8330,10 +8372,10 @@
         <v>30</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="R75" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="T75" s="2">
         <v>4400</v>
@@ -8359,10 +8401,10 @@
         <v>72</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E76" s="2">
         <v>1</v>
@@ -8412,10 +8454,10 @@
         <v>73</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D77" s="2">
         <v>0</v>
@@ -8474,10 +8516,10 @@
         <v>74</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E78" s="2">
         <v>1</v>
@@ -8527,10 +8569,10 @@
         <v>75</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D79" s="2">
         <v>0</v>
@@ -8586,10 +8628,10 @@
         <v>76</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D80" s="2">
         <v>0</v>
@@ -8648,10 +8690,10 @@
         <v>77</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E81" s="2">
         <v>1</v>
@@ -8701,7 +8743,7 @@
         <v>78</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D82" s="2">
         <v>0</v>
@@ -8760,10 +8802,10 @@
         <v>79</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E83" s="2">
         <v>0.9</v>
@@ -8813,10 +8855,10 @@
         <v>80</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E84" s="2">
         <v>1</v>
@@ -8866,10 +8908,10 @@
         <v>81</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E85" s="2">
         <v>1</v>
@@ -8919,10 +8961,10 @@
         <v>82</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D86" s="2">
         <v>0</v>
@@ -8981,10 +9023,10 @@
         <v>83</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D87" s="2">
         <v>0</v>
@@ -9043,10 +9085,10 @@
         <v>84</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E88" s="2">
         <v>1</v>
@@ -9073,7 +9115,7 @@
         <v>5</v>
       </c>
       <c r="R88" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="T88" s="2">
         <v>5200</v>
@@ -9099,10 +9141,10 @@
         <v>85</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E89" s="2">
         <v>1</v>
@@ -9152,10 +9194,10 @@
         <v>86</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D90" s="2">
         <v>0</v>
@@ -9211,10 +9253,10 @@
         <v>87</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D91" s="2">
         <v>0</v>
@@ -9270,7 +9312,7 @@
         <v>88</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D92" s="2">
         <v>0</v>
@@ -9329,10 +9371,10 @@
         <v>89</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E93" s="2">
         <v>1</v>
@@ -9382,10 +9424,10 @@
         <v>90</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D94" s="2">
         <v>0</v>
@@ -9441,10 +9483,10 @@
         <v>91</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D95" s="2">
         <v>0</v>
@@ -9500,10 +9542,10 @@
         <v>92</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E96" s="2">
         <v>1</v>
@@ -9530,13 +9572,13 @@
         <v>30</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P96" s="2">
         <v>1</v>
       </c>
       <c r="R96" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="T96" s="2">
         <v>7000</v>
@@ -9562,10 +9604,10 @@
         <v>93</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D97" s="2">
         <v>0</v>
@@ -9624,10 +9666,10 @@
         <v>94</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E98" s="2">
         <v>1</v>
@@ -9677,10 +9719,10 @@
         <v>95</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E99" s="2">
         <v>1</v>
@@ -9730,10 +9772,10 @@
         <v>96</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E100" s="2">
         <v>1</v>
@@ -9760,13 +9802,13 @@
         <v>30</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P100" s="1">
         <v>1</v>
       </c>
       <c r="R100" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T100" s="2">
         <v>5900</v>
@@ -9792,10 +9834,10 @@
         <v>97</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D101" s="2">
         <v>0</v>
@@ -9854,10 +9896,10 @@
         <v>98</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D102" s="2">
         <v>1</v>
@@ -9910,10 +9952,10 @@
         <v>99</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D103" s="2">
         <v>0</v>
@@ -9972,10 +10014,10 @@
         <v>100</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D104" s="2">
         <v>2</v>
@@ -10028,10 +10070,10 @@
         <v>101</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D105" s="2">
         <v>0</v>
@@ -10087,10 +10129,10 @@
         <v>102</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D106" s="2">
         <v>0</v>
@@ -10149,10 +10191,10 @@
         <v>103</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E107" s="2">
         <v>1</v>
@@ -10202,10 +10244,10 @@
         <v>104</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E108" s="2">
         <v>1</v>
@@ -10255,10 +10297,10 @@
         <v>105</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D109" s="2">
         <v>0</v>
@@ -10314,10 +10356,10 @@
         <v>106</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D110" s="2">
         <v>1</v>
@@ -10373,10 +10415,10 @@
         <v>107</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D111" s="2">
         <v>0</v>
@@ -10432,10 +10474,10 @@
         <v>108</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D112" s="2">
         <v>0</v>
@@ -10491,10 +10533,10 @@
         <v>109</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D113" s="2">
         <v>0</v>
@@ -10550,10 +10592,10 @@
         <v>110</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D114" s="2">
         <v>2</v>
@@ -10606,10 +10648,10 @@
         <v>111</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E115" s="2">
         <v>1</v>
@@ -10659,10 +10701,10 @@
         <v>112</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E116" s="2">
         <v>1</v>
@@ -10712,10 +10754,10 @@
         <v>113</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E117" s="2">
         <v>1</v>
@@ -10765,10 +10807,10 @@
         <v>114</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D118" s="2">
         <v>0</v>
@@ -10824,10 +10866,10 @@
         <v>115</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E119" s="2">
         <v>1</v>
@@ -10877,10 +10919,10 @@
         <v>116</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D120" s="2">
         <v>1</v>
@@ -10936,10 +10978,10 @@
         <v>117</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D121" s="2">
         <v>0</v>
@@ -10995,10 +11037,10 @@
         <v>118</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D122" s="2">
         <v>1</v>
@@ -11057,10 +11099,10 @@
         <v>119</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E123" s="2">
         <v>1</v>
@@ -11110,10 +11152,10 @@
         <v>120</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E124" s="2">
         <v>1.35</v>
@@ -11140,13 +11182,13 @@
         <v>30</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P124" s="2">
         <v>1</v>
       </c>
       <c r="R124" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="T124" s="2">
         <v>8100</v>
@@ -11172,10 +11214,10 @@
         <v>121</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D125" s="2">
         <v>0</v>
@@ -11234,10 +11276,10 @@
         <v>122</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D126" s="2">
         <v>0</v>
@@ -11296,10 +11338,10 @@
         <v>123</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D127" s="2">
         <v>1</v>
@@ -11358,10 +11400,10 @@
         <v>124</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D128" s="2">
         <v>1</v>
@@ -11420,10 +11462,10 @@
         <v>125</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D129" s="2">
         <v>0</v>
@@ -11479,10 +11521,10 @@
         <v>126</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D130" s="2">
         <v>0</v>
@@ -11538,10 +11580,10 @@
         <v>127</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D131" s="2">
         <v>0</v>
@@ -11600,10 +11642,10 @@
         <v>128</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D132" s="2">
         <v>1</v>
@@ -11662,10 +11704,10 @@
         <v>129</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E133" s="2">
         <v>1</v>
@@ -11715,10 +11757,10 @@
         <v>130</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D134" s="2">
         <v>0</v>
@@ -11777,10 +11819,10 @@
         <v>131</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D135" s="2">
         <v>0</v>
@@ -11839,10 +11881,10 @@
         <v>132</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E136" s="2">
         <v>1.35</v>
@@ -11892,10 +11934,10 @@
         <v>133</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D137" s="2">
         <v>1</v>
@@ -11954,10 +11996,10 @@
         <v>134</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D138" s="2">
         <v>1</v>
@@ -12016,10 +12058,10 @@
         <v>135</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E139" s="2">
         <v>1.35</v>
@@ -12069,10 +12111,10 @@
         <v>136</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E140" s="2">
         <v>1</v>
@@ -12122,10 +12164,10 @@
         <v>137</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D141" s="2">
         <v>0</v>
@@ -12184,10 +12226,10 @@
         <v>138</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D142" s="2">
         <v>0</v>
@@ -12243,10 +12285,10 @@
         <v>139</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D143" s="2">
         <v>1</v>
@@ -12302,10 +12344,10 @@
         <v>140</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D144" s="2">
         <v>0</v>
@@ -12364,10 +12406,10 @@
         <v>141</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D145" s="2">
         <v>0</v>
@@ -12423,10 +12465,10 @@
         <v>142</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E146" s="2">
         <v>1.2</v>
@@ -12476,10 +12518,10 @@
         <v>143</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D147" s="2">
         <v>0</v>
@@ -12538,10 +12580,10 @@
         <v>144</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D148" s="2">
         <v>2</v>
@@ -12597,10 +12639,10 @@
         <v>145</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C149" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="D149" s="2">
         <v>0</v>
@@ -12656,10 +12698,10 @@
         <v>146</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E150" s="2">
         <v>1.2</v>
@@ -12686,13 +12728,13 @@
         <v>30</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P150" s="1">
         <v>1</v>
       </c>
       <c r="R150" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T150" s="2">
         <v>30000</v>
@@ -12718,10 +12760,10 @@
         <v>147</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E151" s="2">
         <v>1</v>
@@ -12774,10 +12816,10 @@
         <v>148</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D152" s="2">
         <v>0</v>
@@ -12836,10 +12878,10 @@
         <v>149</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E153" s="2">
         <v>1</v>
@@ -12889,10 +12931,10 @@
         <v>150</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E154" s="2">
         <v>1</v>
@@ -12919,10 +12961,10 @@
         <v>30</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="R154" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="T154" s="2">
         <v>10000</v>
@@ -12948,10 +12990,10 @@
         <v>151</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D155" s="2">
         <v>2</v>
@@ -13004,10 +13046,10 @@
         <v>152</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D156" s="2">
         <v>0</v>
@@ -13063,10 +13105,10 @@
         <v>153</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D157" s="2">
         <v>0</v>
@@ -13122,10 +13164,10 @@
         <v>154</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D158" s="2">
         <v>0</v>
@@ -13181,10 +13223,10 @@
         <v>155</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E159" s="2">
         <v>1</v>
@@ -13234,10 +13276,10 @@
         <v>156</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E160" s="2">
         <v>1.2</v>
@@ -13287,10 +13329,10 @@
         <v>157</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E161" s="2">
         <v>1</v>
@@ -13317,13 +13359,13 @@
         <v>30</v>
       </c>
       <c r="N161" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P161" s="1">
         <v>1</v>
       </c>
       <c r="R161" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T161" s="2">
         <v>10400</v>
@@ -13349,10 +13391,10 @@
         <v>158</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D162" s="2">
         <v>0</v>
@@ -13411,10 +13453,10 @@
         <v>159</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E163" s="2">
         <v>1.5</v>
@@ -13464,10 +13506,10 @@
         <v>160</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D164" s="2">
         <v>0</v>
@@ -13526,10 +13568,10 @@
         <v>161</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E165" s="2">
         <v>1.5</v>
@@ -13579,10 +13621,10 @@
         <v>162</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D166" s="2">
         <v>0</v>
@@ -13641,10 +13683,10 @@
         <v>163</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E167" s="2">
         <v>1</v>
@@ -13671,7 +13713,7 @@
         <v>30</v>
       </c>
       <c r="N167" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P167" s="1">
         <v>1</v>
@@ -13680,7 +13722,7 @@
         <v>1</v>
       </c>
       <c r="R167" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T167" s="2">
         <v>10800</v>
@@ -13706,10 +13748,10 @@
         <v>164</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E168" s="2">
         <v>1</v>
@@ -13762,10 +13804,10 @@
         <v>165</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E169" s="2">
         <v>1</v>
@@ -13818,10 +13860,10 @@
         <v>166</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E170" s="2">
         <v>1</v>
@@ -13848,7 +13890,7 @@
         <v>30</v>
       </c>
       <c r="N170" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P170" s="2">
         <v>1</v>
@@ -13877,10 +13919,10 @@
         <v>167</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E171" s="2">
         <v>1</v>
@@ -13930,10 +13972,10 @@
         <v>168</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E172" s="2">
         <v>1</v>
@@ -13983,10 +14025,10 @@
         <v>169</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E173" s="2">
         <v>1</v>
@@ -14036,10 +14078,10 @@
         <v>170</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E174" s="2">
         <v>1</v>
@@ -14089,10 +14131,10 @@
         <v>171</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E175" s="2">
         <v>1</v>
@@ -14142,10 +14184,10 @@
         <v>172</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E176" s="2">
         <v>1</v>
@@ -14195,10 +14237,10 @@
         <v>173</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D177" s="2">
         <v>0</v>
@@ -14254,10 +14296,10 @@
         <v>174</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D178" s="2">
         <v>0</v>
@@ -14316,10 +14358,10 @@
         <v>175</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E179" s="2">
         <v>1</v>
@@ -14372,10 +14414,10 @@
         <v>176</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E180" s="2">
         <v>1</v>
@@ -14402,7 +14444,7 @@
         <v>30</v>
       </c>
       <c r="N180" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P180" s="1">
         <v>1</v>
@@ -14434,10 +14476,10 @@
         <v>177</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E181" s="2">
         <v>1</v>
@@ -14487,10 +14529,10 @@
         <v>178</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E182" s="2">
         <v>1</v>
@@ -14540,10 +14582,10 @@
         <v>179</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D183" s="2">
         <v>0</v>
@@ -14599,10 +14641,10 @@
         <v>180</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D184" s="2">
         <v>0</v>
@@ -14661,10 +14703,10 @@
         <v>181</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E185" s="2">
         <v>1</v>
@@ -14714,10 +14756,10 @@
         <v>182</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E186" s="2">
         <v>1</v>
@@ -14744,7 +14786,7 @@
         <v>30</v>
       </c>
       <c r="N186" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="T186" s="2">
         <v>12000</v>
@@ -14770,10 +14812,10 @@
         <v>183</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E187" s="2">
         <v>1</v>
@@ -14823,10 +14865,10 @@
         <v>184</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E188" s="2">
         <v>2</v>
@@ -14876,10 +14918,10 @@
         <v>185</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E189" s="2">
         <v>1</v>
@@ -14932,10 +14974,10 @@
         <v>186</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D190" s="2">
         <v>0</v>
@@ -14991,10 +15033,10 @@
         <v>187</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E191" s="2">
         <v>1</v>
@@ -15047,10 +15089,10 @@
         <v>188</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D192" s="2">
         <v>0</v>
@@ -15106,10 +15148,10 @@
         <v>189</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D193" s="2">
         <v>1</v>
@@ -15165,10 +15207,10 @@
         <v>190</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E194" s="2">
         <v>1</v>
@@ -15218,10 +15260,10 @@
         <v>191</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E195" s="2">
         <v>1</v>
@@ -15271,10 +15313,10 @@
         <v>192</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E196" s="2">
         <v>1</v>
@@ -15324,10 +15366,10 @@
         <v>193</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D197" s="2">
         <v>1</v>
@@ -15383,10 +15425,10 @@
         <v>194</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D198" s="2">
         <v>0</v>
@@ -15442,10 +15484,10 @@
         <v>195</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D199" s="2">
         <v>0</v>
@@ -15501,10 +15543,10 @@
         <v>196</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D200" s="2">
         <v>0</v>
@@ -15563,10 +15605,10 @@
         <v>197</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D201" s="2">
         <v>0</v>
@@ -15622,10 +15664,10 @@
         <v>198</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E202" s="2">
         <v>1</v>
@@ -15675,10 +15717,10 @@
         <v>199</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E203" s="2">
         <v>1</v>
@@ -15702,19 +15744,19 @@
         <v>10</v>
       </c>
       <c r="L203" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M203" s="2">
         <v>30</v>
       </c>
       <c r="N203" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P203" s="1">
         <v>1</v>
       </c>
       <c r="R203" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T203" s="2">
         <v>12000</v>
@@ -15740,10 +15782,10 @@
         <v>200</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D204" s="2">
         <v>0</v>
@@ -15802,10 +15844,10 @@
         <v>201</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E205" s="2">
         <v>1</v>
@@ -15855,10 +15897,10 @@
         <v>202</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E206" s="2">
         <v>1</v>
@@ -15882,16 +15924,16 @@
         <v>10</v>
       </c>
       <c r="L206" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M206" s="2">
         <v>30</v>
       </c>
       <c r="N206" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="R206" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="T206" s="2">
         <v>10000</v>
@@ -15920,10 +15962,10 @@
         <v>203</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E207" s="2">
         <v>1</v>
@@ -15947,7 +15989,7 @@
         <v>10</v>
       </c>
       <c r="L207" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M207" s="2">
         <v>5</v>
@@ -15976,10 +16018,10 @@
         <v>204</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E208" s="2">
         <v>1</v>
@@ -16003,7 +16045,7 @@
         <v>10</v>
       </c>
       <c r="L208" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M208" s="2">
         <v>5</v>
@@ -16032,10 +16074,10 @@
         <v>205</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E209" s="2">
         <v>1</v>
@@ -16059,7 +16101,7 @@
         <v>10</v>
       </c>
       <c r="L209" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M209" s="2">
         <v>5</v>
@@ -16088,10 +16130,10 @@
         <v>206</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E210" s="2">
         <v>1</v>
@@ -16115,19 +16157,19 @@
         <v>10</v>
       </c>
       <c r="L210" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M210" s="2">
         <v>30</v>
       </c>
       <c r="N210" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P210" s="1">
         <v>1</v>
       </c>
       <c r="R210" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T210" s="2">
         <v>12000</v>
@@ -16153,10 +16195,10 @@
         <v>207</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E211" s="2">
         <v>1</v>
@@ -16206,10 +16248,10 @@
         <v>208</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E212" s="2">
         <v>1</v>
@@ -16236,10 +16278,10 @@
         <v>30</v>
       </c>
       <c r="N212" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="R212" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="T212" s="2">
         <v>15000</v>
@@ -16265,10 +16307,10 @@
         <v>209</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E213" s="2">
         <v>1</v>
@@ -16318,10 +16360,10 @@
         <v>210</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E214" s="2">
         <v>1</v>
@@ -16371,10 +16413,10 @@
         <v>211</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E215" s="2">
         <v>2</v>
@@ -16424,10 +16466,10 @@
         <v>212</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E216" s="2">
         <v>1</v>
@@ -16477,10 +16519,10 @@
         <v>213</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E217" s="2">
         <v>1</v>
@@ -16530,10 +16572,10 @@
         <v>214</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E218" s="2">
         <v>1</v>
@@ -16583,10 +16625,10 @@
         <v>215</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E219" s="2">
         <v>1</v>
@@ -16636,10 +16678,10 @@
         <v>216</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E220" s="2">
         <v>1</v>
@@ -16689,10 +16731,10 @@
         <v>217</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D221" s="2">
         <v>0</v>
@@ -16751,10 +16793,10 @@
         <v>218</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="E222" s="2">
         <v>1</v>
@@ -16804,10 +16846,10 @@
         <v>219</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D223" s="2">
         <v>0</v>
@@ -16866,10 +16908,10 @@
         <v>220</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D224" s="2">
         <v>0</v>
@@ -16928,10 +16970,10 @@
         <v>221</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E225" s="2">
         <v>1</v>
@@ -16984,10 +17026,10 @@
         <v>222</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E226" s="2">
         <v>1</v>
@@ -17014,10 +17056,10 @@
         <v>30</v>
       </c>
       <c r="N226" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="R226" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="T226" s="2">
         <v>12900</v>
@@ -17043,10 +17085,10 @@
         <v>223</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E227" s="2">
         <v>1</v>
@@ -17096,10 +17138,10 @@
         <v>224</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E228" s="2">
         <v>1</v>
@@ -17126,10 +17168,10 @@
         <v>30</v>
       </c>
       <c r="N228" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="R228" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="T228" s="2">
         <v>10000</v>
@@ -17155,10 +17197,10 @@
         <v>225</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E229" s="2">
         <v>1</v>
@@ -17208,10 +17250,10 @@
         <v>226</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E230" s="2">
         <v>1</v>
@@ -17261,10 +17303,10 @@
         <v>227</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E231" s="2">
         <v>1.3</v>
@@ -17314,10 +17356,10 @@
         <v>228</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D232" s="2">
         <v>0</v>
@@ -17376,10 +17418,10 @@
         <v>229</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E233" s="2">
         <v>1.5</v>
@@ -17429,10 +17471,10 @@
         <v>230</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E234" s="2">
         <v>1</v>
@@ -17459,7 +17501,7 @@
         <v>10</v>
       </c>
       <c r="R234" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T234" s="2">
         <v>16400</v>
@@ -17485,10 +17527,10 @@
         <v>231</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E235" s="2">
         <v>1</v>
@@ -17538,10 +17580,10 @@
         <v>232</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E236" s="2">
         <v>1</v>
@@ -17591,10 +17633,10 @@
         <v>233</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E237" s="2">
         <v>1</v>
@@ -17618,16 +17660,16 @@
         <v>10</v>
       </c>
       <c r="L237" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M237" s="2">
         <v>30</v>
       </c>
       <c r="N237" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="R237" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="T237" s="2">
         <v>12000</v>
@@ -17656,10 +17698,10 @@
         <v>234</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D238" s="2">
         <v>1</v>
@@ -17689,13 +17731,13 @@
         <v>30</v>
       </c>
       <c r="N238" s="2" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="P238" s="2">
         <v>8</v>
       </c>
       <c r="R238" s="2" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="T238" s="2">
         <v>17000</v>
@@ -17724,10 +17766,10 @@
         <v>235</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E239" s="2">
         <v>1</v>
@@ -17777,10 +17819,10 @@
         <v>236</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E240" s="2">
         <v>1</v>
@@ -17830,10 +17872,10 @@
         <v>237</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="E241" s="2">
         <v>1</v>
@@ -17883,10 +17925,10 @@
         <v>238</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E242" s="2">
         <v>1</v>
@@ -17936,10 +17978,10 @@
         <v>239</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E243" s="2">
         <v>1</v>
@@ -17989,10 +18031,10 @@
         <v>240</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E244" s="2">
         <v>1</v>
@@ -18045,10 +18087,10 @@
         <v>241</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E245" s="2">
         <v>1</v>
@@ -18098,10 +18140,10 @@
         <v>242</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E246" s="2">
         <v>1</v>
@@ -18151,10 +18193,10 @@
         <v>243</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E247" s="2">
         <v>1</v>
@@ -18204,10 +18246,10 @@
         <v>244</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E248" s="2">
         <v>1</v>
@@ -18260,10 +18302,10 @@
         <v>245</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E249" s="2">
         <v>1</v>
@@ -18313,10 +18355,10 @@
         <v>246</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E250" s="2">
         <v>1</v>
@@ -18366,10 +18408,10 @@
         <v>247</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E251" s="2">
         <v>2</v>
@@ -18396,7 +18438,7 @@
         <v>5</v>
       </c>
       <c r="S251" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="T251" s="2">
         <v>20000</v>
@@ -18422,10 +18464,10 @@
         <v>248</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E252" s="2">
         <v>1</v>
@@ -18475,10 +18517,10 @@
         <v>249</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="E253" s="2">
         <v>2</v>
@@ -18528,10 +18570,10 @@
         <v>250</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E254" s="2">
         <v>1</v>
@@ -18581,10 +18623,10 @@
         <v>251</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E255" s="2">
         <v>1</v>
@@ -18634,10 +18676,10 @@
         <v>252</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E256" s="2">
         <v>1</v>
@@ -18664,13 +18706,13 @@
         <v>30</v>
       </c>
       <c r="N256" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P256" s="1">
         <v>1</v>
       </c>
       <c r="R256" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T256" s="2">
         <v>20000</v>
@@ -18696,10 +18738,10 @@
         <v>253</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E257" s="2">
         <v>1</v>
@@ -18749,10 +18791,10 @@
         <v>254</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E258" s="2">
         <v>1</v>
@@ -18779,13 +18821,13 @@
         <v>30</v>
       </c>
       <c r="N258" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P258" s="1">
         <v>1</v>
       </c>
       <c r="R258" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T258" s="2">
         <v>20000</v>
@@ -18811,10 +18853,10 @@
         <v>255</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E259" s="2">
         <v>1</v>
@@ -18864,10 +18906,10 @@
         <v>256</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E260" s="2">
         <v>1</v>
@@ -18917,10 +18959,10 @@
         <v>257</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E261" s="2">
         <v>1</v>
@@ -18970,10 +19012,10 @@
         <v>258</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="E262" s="2">
         <v>1</v>
@@ -19023,10 +19065,10 @@
         <v>259</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E263" s="2">
         <v>1</v>
@@ -19076,10 +19118,10 @@
         <v>260</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E264" s="2">
         <v>1</v>
@@ -19129,10 +19171,10 @@
         <v>261</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E265" s="2">
         <v>1</v>
@@ -19182,10 +19224,10 @@
         <v>262</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E266" s="2">
         <v>2</v>
@@ -19235,10 +19277,10 @@
         <v>263</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D267" s="2">
         <v>0</v>
@@ -19291,10 +19333,10 @@
         <v>264</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E268" s="2">
         <v>1</v>
@@ -19344,10 +19386,10 @@
         <v>265</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="E269" s="2">
         <v>1</v>
@@ -19374,7 +19416,7 @@
         <v>5</v>
       </c>
       <c r="R269" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T269" s="2">
         <v>30100</v>
@@ -19400,10 +19442,10 @@
         <v>266</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E270" s="2">
         <v>1</v>
@@ -19453,10 +19495,10 @@
         <v>267</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E271" s="2">
         <v>1</v>
@@ -19506,10 +19548,10 @@
         <v>268</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="E272" s="2">
         <v>1</v>
@@ -19559,10 +19601,10 @@
         <v>269</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E273" s="2">
         <v>1</v>
@@ -19612,10 +19654,10 @@
         <v>270</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E274" s="2">
         <v>1</v>
@@ -19668,10 +19710,10 @@
         <v>271</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="E275" s="2">
         <v>3</v>
@@ -19721,10 +19763,10 @@
         <v>272</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="E276" s="2">
         <v>1</v>
@@ -19774,10 +19816,10 @@
         <v>273</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="E277" s="2">
         <v>0.8</v>
@@ -19804,13 +19846,13 @@
         <v>30</v>
       </c>
       <c r="N277" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="P277" s="2">
         <v>8</v>
       </c>
       <c r="R277" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="T277" s="2">
         <v>26000</v>
@@ -19836,10 +19878,10 @@
         <v>274</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E278" s="2">
         <v>1</v>
@@ -19889,10 +19931,10 @@
         <v>275</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E279" s="2">
         <v>1</v>
@@ -19942,10 +19984,10 @@
         <v>276</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E280" s="2">
         <v>1</v>
@@ -19972,13 +20014,13 @@
         <v>30</v>
       </c>
       <c r="N280" s="2" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="P280" s="2">
         <v>8</v>
       </c>
       <c r="R280" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="T280" s="2">
         <v>29000</v>
@@ -20004,10 +20046,10 @@
         <v>277</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E281" s="2">
         <v>1</v>
@@ -20057,10 +20099,10 @@
         <v>278</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E282" s="2">
         <v>1</v>
@@ -20087,13 +20129,13 @@
         <v>30</v>
       </c>
       <c r="N282" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P282" s="2">
         <v>8</v>
       </c>
       <c r="R282" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="T282" s="2">
         <v>29000</v>
@@ -20119,10 +20161,10 @@
         <v>279</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E283" s="2">
         <v>1</v>
@@ -20172,10 +20214,10 @@
         <v>280</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E284" s="2">
         <v>1</v>
@@ -20202,13 +20244,13 @@
         <v>30</v>
       </c>
       <c r="N284" s="2" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="P284" s="2">
         <v>8</v>
       </c>
       <c r="R284" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="T284" s="2">
         <v>29000</v>
@@ -20234,10 +20276,10 @@
         <v>281</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E285" s="2">
         <v>1</v>
@@ -20287,10 +20329,10 @@
         <v>282</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E286" s="2">
         <v>1</v>
@@ -20340,10 +20382,10 @@
         <v>283</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="E287" s="2">
         <v>1.2</v>
@@ -20370,13 +20412,13 @@
         <v>30</v>
       </c>
       <c r="N287" s="2" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="P287" s="2">
         <v>8</v>
       </c>
       <c r="R287" s="2" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="T287" s="2">
         <v>29000</v>
@@ -20405,10 +20447,10 @@
         <v>284</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="E288" s="2">
         <v>1</v>
@@ -20458,10 +20500,10 @@
         <v>285</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="E289" s="2">
         <v>1</v>
@@ -20511,10 +20553,10 @@
         <v>286</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E290" s="2">
         <v>1</v>
@@ -20564,10 +20606,10 @@
         <v>287</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E291" s="2">
         <v>1</v>
@@ -20617,10 +20659,10 @@
         <v>288</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E292" s="2">
         <v>1</v>
@@ -20670,10 +20712,10 @@
         <v>289</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="E293" s="2">
         <v>1</v>
@@ -20723,10 +20765,10 @@
         <v>290</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E294" s="2">
         <v>1</v>
@@ -20776,10 +20818,10 @@
         <v>291</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="E295" s="2">
         <v>1</v>
@@ -20829,10 +20871,10 @@
         <v>292</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="E296" s="2">
         <v>1</v>
@@ -20882,10 +20924,10 @@
         <v>293</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="E297" s="2">
         <v>1</v>
@@ -20935,10 +20977,10 @@
         <v>294</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E298" s="2">
         <v>1</v>
@@ -20965,13 +21007,13 @@
         <v>30</v>
       </c>
       <c r="N298" s="2" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="P298" s="2">
         <v>8</v>
       </c>
       <c r="R298" s="2" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="T298" s="2">
         <v>30000</v>
@@ -21000,10 +21042,10 @@
         <v>295</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="E299" s="2">
         <v>1</v>
@@ -21033,7 +21075,7 @@
         <v>8</v>
       </c>
       <c r="R299" s="2" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="T299" s="2">
         <v>30000</v>
@@ -21062,10 +21104,10 @@
         <v>296</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="E300" s="2">
         <v>1</v>
@@ -21115,10 +21157,10 @@
         <v>297</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="E301" s="2">
         <v>1</v>
@@ -21145,13 +21187,13 @@
         <v>30</v>
       </c>
       <c r="N301" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P301" s="1">
         <v>1</v>
       </c>
       <c r="R301" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T301" s="2">
         <v>30000</v>
@@ -21177,10 +21219,10 @@
         <v>298</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="E302" s="2">
         <v>1</v>
@@ -21230,10 +21272,10 @@
         <v>299</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="E303" s="2">
         <v>1</v>
@@ -21283,10 +21325,10 @@
         <v>300</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="E304" s="2">
         <v>1</v>
@@ -21336,10 +21378,10 @@
         <v>301</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E305" s="2">
         <v>1</v>
@@ -21389,10 +21431,10 @@
         <v>302</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E306" s="2">
         <v>1</v>
@@ -21442,10 +21484,10 @@
         <v>303</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="E307" s="2">
         <v>1</v>
@@ -21495,10 +21537,10 @@
         <v>304</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="E308" s="2">
         <v>1</v>
@@ -21548,10 +21590,10 @@
         <v>305</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="E309" s="2">
         <v>2</v>
@@ -21601,10 +21643,10 @@
         <v>306</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="E310" s="2">
         <v>1</v>
@@ -21654,10 +21696,10 @@
         <v>307</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E311" s="2">
         <v>1</v>
@@ -21707,10 +21749,10 @@
         <v>308</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="E312" s="2">
         <v>1</v>
@@ -21760,10 +21802,10 @@
         <v>309</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E313" s="2">
         <v>1</v>
@@ -21813,10 +21855,10 @@
         <v>310</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E314" s="2">
         <v>1</v>
@@ -21866,10 +21908,10 @@
         <v>311</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="E315" s="2">
         <v>1</v>
@@ -21919,10 +21961,10 @@
         <v>312</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="E316" s="2">
         <v>1</v>
@@ -21972,10 +22014,10 @@
         <v>313</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="E317" s="2">
         <v>1</v>
@@ -22025,10 +22067,10 @@
         <v>314</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E318" s="2">
         <v>1</v>
@@ -22078,10 +22120,10 @@
         <v>315</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E319" s="2">
         <v>1</v>
@@ -22131,10 +22173,10 @@
         <v>316</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="E320" s="2">
         <v>1</v>
@@ -22184,10 +22226,10 @@
         <v>317</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="E321" s="2">
         <v>1</v>
@@ -22237,10 +22279,10 @@
         <v>318</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="E322" s="2">
         <v>1</v>
@@ -22290,10 +22332,10 @@
         <v>319</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="E323" s="2">
         <v>1</v>
@@ -22343,10 +22385,10 @@
         <v>320</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E324" s="2">
         <v>1</v>
@@ -22396,10 +22438,10 @@
         <v>321</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E325" s="2">
         <v>1</v>
@@ -22426,13 +22468,13 @@
         <v>30</v>
       </c>
       <c r="N325" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P325" s="1">
         <v>1</v>
       </c>
       <c r="R325" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T325" s="2">
         <v>30000</v>
@@ -22458,10 +22500,10 @@
         <v>322</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="E326" s="2">
         <v>1</v>
@@ -22488,13 +22530,13 @@
         <v>30</v>
       </c>
       <c r="N326" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P326" s="1">
         <v>1</v>
       </c>
       <c r="R326" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T326" s="2">
         <v>30000</v>
@@ -22520,10 +22562,10 @@
         <v>323</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E327" s="2">
         <v>1</v>
@@ -22573,10 +22615,10 @@
         <v>324</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E328" s="2">
         <v>1</v>
@@ -22626,10 +22668,10 @@
         <v>325</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="E329" s="2">
         <v>1</v>
@@ -22679,10 +22721,10 @@
         <v>326</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="E330" s="2">
         <v>1</v>
@@ -22732,10 +22774,10 @@
         <v>327</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="E331" s="2">
         <v>1</v>
@@ -22785,10 +22827,10 @@
         <v>328</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="E332" s="2">
         <v>1</v>
@@ -22838,10 +22880,10 @@
         <v>329</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="E333" s="2">
         <v>1</v>
@@ -22891,10 +22933,10 @@
         <v>330</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E334" s="2">
         <v>1</v>
@@ -22944,10 +22986,10 @@
         <v>331</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E335" s="2">
         <v>1</v>
@@ -22997,10 +23039,10 @@
         <v>332</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E336" s="2">
         <v>1</v>
@@ -23050,10 +23092,10 @@
         <v>333</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="E337" s="2">
         <v>1</v>
@@ -23103,10 +23145,10 @@
         <v>334</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E338" s="2">
         <v>1</v>
@@ -23156,10 +23198,10 @@
         <v>335</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="E339" s="2">
         <v>1</v>
@@ -23209,10 +23251,10 @@
         <v>336</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="E340" s="2">
         <v>1</v>
@@ -23262,10 +23304,10 @@
         <v>337</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="E341" s="2">
         <v>1</v>
@@ -23315,10 +23357,10 @@
         <v>338</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E342" s="2">
         <v>1</v>
@@ -23368,10 +23410,10 @@
         <v>339</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="E343" s="2">
         <v>1</v>
@@ -23421,10 +23463,10 @@
         <v>340</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="E344" s="2">
         <v>1</v>
@@ -23474,10 +23516,10 @@
         <v>341</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="E345" s="2">
         <v>1</v>
@@ -23527,10 +23569,10 @@
         <v>342</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="E346" s="2">
         <v>1</v>
@@ -23580,10 +23622,10 @@
         <v>343</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="E347" s="2">
         <v>1</v>
@@ -23610,13 +23652,13 @@
         <v>30</v>
       </c>
       <c r="N347" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P347" s="1">
         <v>1</v>
       </c>
       <c r="R347" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T347" s="2">
         <v>30000</v>
@@ -23642,10 +23684,10 @@
         <v>344</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="E348" s="2">
         <v>1</v>
@@ -23672,13 +23714,13 @@
         <v>30</v>
       </c>
       <c r="N348" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P348" s="1">
         <v>1</v>
       </c>
       <c r="R348" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T348" s="2">
         <v>30000</v>
@@ -23704,10 +23746,10 @@
         <v>345</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="E349" s="2">
         <v>1</v>
@@ -23734,13 +23776,13 @@
         <v>30</v>
       </c>
       <c r="N349" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P349" s="1">
         <v>1</v>
       </c>
       <c r="R349" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T349" s="2">
         <v>30000</v>
@@ -23766,10 +23808,10 @@
         <v>346</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E350" s="2">
         <v>1</v>
@@ -23796,13 +23838,13 @@
         <v>30</v>
       </c>
       <c r="N350" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P350" s="1">
         <v>1</v>
       </c>
       <c r="R350" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T350" s="2">
         <v>30000</v>
@@ -23828,10 +23870,10 @@
         <v>347</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="E351" s="2">
         <v>1</v>
@@ -23858,13 +23900,13 @@
         <v>30</v>
       </c>
       <c r="N351" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P351" s="1">
         <v>1</v>
       </c>
       <c r="R351" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T351" s="2">
         <v>30000</v>
@@ -23890,10 +23932,10 @@
         <v>348</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="E352" s="2">
         <v>1</v>
@@ -23920,13 +23962,13 @@
         <v>30</v>
       </c>
       <c r="N352" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P352" s="1">
         <v>1</v>
       </c>
       <c r="R352" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T352" s="2">
         <v>30000</v>
@@ -23952,10 +23994,10 @@
         <v>349</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="E353" s="2">
         <v>1</v>
@@ -24005,10 +24047,10 @@
         <v>350</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="E354" s="2">
         <v>1</v>
@@ -24058,10 +24100,10 @@
         <v>351</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="E355" s="2">
         <v>1</v>
@@ -24111,10 +24153,10 @@
         <v>352</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="E356" s="2">
         <v>1</v>
@@ -24164,10 +24206,10 @@
         <v>353</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="E357" s="2">
         <v>1</v>
@@ -24217,10 +24259,10 @@
         <v>354</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="E358" s="2">
         <v>1</v>
@@ -24270,10 +24312,10 @@
         <v>355</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="E359" s="2">
         <v>1</v>
@@ -24323,10 +24365,10 @@
         <v>356</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D360" s="2">
         <v>0</v>
@@ -24379,10 +24421,10 @@
         <v>357</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="D361" s="2">
         <v>1</v>
@@ -24435,10 +24477,10 @@
         <v>358</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="E362" s="2">
         <v>2.5</v>
@@ -24488,10 +24530,10 @@
         <v>359</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E363" s="2">
         <v>1</v>
@@ -24541,10 +24583,10 @@
         <v>360</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E364" s="2">
         <v>1.2</v>
@@ -24594,10 +24636,10 @@
         <v>361</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E365" s="2">
         <v>1.2</v>
@@ -24647,10 +24689,10 @@
         <v>362</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E366" s="2">
         <v>1.2</v>
@@ -24677,13 +24719,13 @@
         <v>30</v>
       </c>
       <c r="N366" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="P366" s="2">
         <v>8</v>
       </c>
       <c r="R366" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="T366" s="2">
         <v>30000</v>
@@ -24709,10 +24751,10 @@
         <v>363</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="E367" s="2">
         <v>1.2</v>
@@ -24739,13 +24781,13 @@
         <v>30</v>
       </c>
       <c r="N367" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P367" s="2">
         <v>8</v>
       </c>
       <c r="R367" s="2" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="T367" s="2">
         <v>30000</v>
@@ -24771,10 +24813,10 @@
         <v>364</v>
       </c>
       <c r="B368" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C368" s="2" t="s">
         <v>706</v>
-      </c>
-      <c r="C368" s="2" t="s">
-        <v>704</v>
       </c>
       <c r="E368" s="2">
         <v>1.2</v>
@@ -24801,13 +24843,13 @@
         <v>30</v>
       </c>
       <c r="N368" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P368" s="2">
         <v>8</v>
       </c>
       <c r="R368" s="2" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="T368" s="2">
         <v>30000</v>
@@ -24833,10 +24875,10 @@
         <v>365</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="E369" s="2">
         <v>2</v>
@@ -24886,10 +24928,10 @@
         <v>366</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E370" s="2">
         <v>1.2</v>
@@ -24939,10 +24981,10 @@
         <v>367</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="E371" s="2">
         <v>2</v>
@@ -24992,10 +25034,10 @@
         <v>368</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="E372" s="2">
         <v>1</v>
@@ -25045,10 +25087,10 @@
         <v>369</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="E373" s="2">
         <v>1.5</v>
@@ -25098,10 +25140,10 @@
         <v>370</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="E374" s="2">
         <v>1</v>
@@ -25128,13 +25170,13 @@
         <v>30</v>
       </c>
       <c r="N374" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="P374" s="2">
         <v>8</v>
       </c>
       <c r="R374" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="T374" s="2">
         <v>30000</v>
@@ -25163,10 +25205,10 @@
         <v>371</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E375" s="2">
         <v>3</v>
@@ -25216,10 +25258,10 @@
         <v>372</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="E376" s="2">
         <v>1</v>
@@ -25269,10 +25311,10 @@
         <v>373</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="E377" s="2">
         <v>1</v>
@@ -25322,10 +25364,10 @@
         <v>374</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="E378" s="2">
         <v>1</v>
@@ -25375,10 +25417,10 @@
         <v>375</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E379" s="2">
         <v>1</v>
@@ -25428,10 +25470,10 @@
         <v>376</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="E380" s="2">
         <v>1</v>
@@ -25458,7 +25500,7 @@
         <v>5</v>
       </c>
       <c r="R380" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T380" s="2">
         <v>30100</v>
@@ -25484,10 +25526,10 @@
         <v>377</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="E381" s="2">
         <v>1</v>
@@ -25514,7 +25556,7 @@
         <v>5</v>
       </c>
       <c r="R381" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T381" s="2">
         <v>30100</v>
@@ -25540,10 +25582,10 @@
         <v>378</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E382" s="2">
         <v>1</v>
@@ -25593,10 +25635,10 @@
         <v>379</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="E383" s="2">
         <v>1</v>
@@ -25646,10 +25688,10 @@
         <v>380</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="E384" s="2">
         <v>1</v>
@@ -25699,10 +25741,10 @@
         <v>381</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E385" s="2">
         <v>1</v>
@@ -25752,10 +25794,10 @@
         <v>382</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="E386" s="2">
         <v>1</v>
@@ -25805,10 +25847,10 @@
         <v>383</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="E387" s="2">
         <v>1</v>
@@ -25858,10 +25900,10 @@
         <v>384</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="E388" s="2">
         <v>1</v>
@@ -25911,10 +25953,10 @@
         <v>385</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="E389" s="2">
         <v>1</v>
@@ -25964,10 +26006,10 @@
         <v>386</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="E390" s="2">
         <v>1</v>
@@ -26017,10 +26059,10 @@
         <v>387</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="E391" s="2">
         <v>1</v>
@@ -26070,10 +26112,10 @@
         <v>388</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="E392" s="2">
         <v>1</v>
@@ -26123,10 +26165,10 @@
         <v>389</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="E393" s="2">
         <v>1</v>
@@ -26176,10 +26218,10 @@
         <v>390</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="E394" s="2">
         <v>1</v>
@@ -26229,10 +26271,10 @@
         <v>391</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="E395" s="2">
         <v>1</v>
@@ -26282,10 +26324,10 @@
         <v>392</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="E396" s="2">
         <v>1</v>
@@ -26335,10 +26377,10 @@
         <v>393</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="E397" s="2">
         <v>1</v>
@@ -26388,10 +26430,10 @@
         <v>394</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="E398" s="2">
         <v>1</v>
@@ -26441,10 +26483,10 @@
         <v>395</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="E399" s="2">
         <v>1</v>
@@ -26494,10 +26536,10 @@
         <v>396</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E400" s="2">
         <v>1</v>
@@ -26547,10 +26589,10 @@
         <v>397</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="E401" s="2">
         <v>1</v>
@@ -26600,10 +26642,10 @@
         <v>398</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="E402" s="2">
         <v>1</v>
@@ -26653,10 +26695,10 @@
         <v>399</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="E403" s="2">
         <v>1</v>
@@ -26706,10 +26748,10 @@
         <v>400</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="E404" s="2">
         <v>1</v>
@@ -26759,10 +26801,10 @@
         <v>401</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="E405" s="2">
         <v>1</v>
@@ -26812,10 +26854,10 @@
         <v>402</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="E406" s="2">
         <v>1</v>
@@ -26865,10 +26907,10 @@
         <v>403</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="E407" s="2">
         <v>1</v>
@@ -26918,10 +26960,10 @@
         <v>404</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E408" s="2">
         <v>1</v>
@@ -26971,10 +27013,10 @@
         <v>405</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E409" s="2">
         <v>1</v>
@@ -27001,7 +27043,7 @@
         <v>5</v>
       </c>
       <c r="R409" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T409" s="2">
         <v>30100</v>
@@ -27027,10 +27069,10 @@
         <v>406</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="E410" s="2">
         <v>1</v>
@@ -27057,7 +27099,7 @@
         <v>5</v>
       </c>
       <c r="R410" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T410" s="2">
         <v>30100</v>
@@ -27083,10 +27125,10 @@
         <v>407</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="E411" s="2">
         <v>1</v>
@@ -27136,10 +27178,10 @@
         <v>408</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="E412" s="2">
         <v>1</v>
@@ -27189,10 +27231,10 @@
         <v>409</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="E413" s="2">
         <v>1</v>
@@ -27219,13 +27261,13 @@
         <v>30</v>
       </c>
       <c r="N413" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P413" s="1">
         <v>1</v>
       </c>
       <c r="R413" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T413" s="2">
         <v>30100</v>
@@ -27251,10 +27293,10 @@
         <v>410</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="E414" s="2">
         <v>1</v>
@@ -27304,10 +27346,10 @@
         <v>411</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="E415" s="2">
         <v>1</v>
@@ -27357,10 +27399,10 @@
         <v>412</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="E416" s="2">
         <v>1</v>
@@ -27410,10 +27452,10 @@
         <v>413</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="E417" s="2">
         <v>1</v>
@@ -27463,10 +27505,10 @@
         <v>414</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="E418" s="2">
         <v>1</v>
@@ -27516,10 +27558,10 @@
         <v>415</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E419" s="2">
         <v>1</v>
@@ -27569,10 +27611,10 @@
         <v>416</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="E420" s="2">
         <v>1</v>
@@ -27622,10 +27664,10 @@
         <v>417</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="E421" s="2">
         <v>1</v>
@@ -27675,10 +27717,10 @@
         <v>418</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="E422" s="2">
         <v>1</v>
@@ -27728,10 +27770,10 @@
         <v>419</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="E423" s="2">
         <v>1</v>
@@ -27781,10 +27823,10 @@
         <v>420</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="E424" s="2">
         <v>1</v>
@@ -27834,10 +27876,10 @@
         <v>421</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="E425" s="2">
         <v>1</v>
@@ -27887,10 +27929,10 @@
         <v>422</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="E426" s="2">
         <v>1</v>
@@ -27940,10 +27982,10 @@
         <v>423</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="E427" s="2">
         <v>1</v>
@@ -27993,10 +28035,10 @@
         <v>424</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="E428" s="2">
         <v>1</v>
@@ -28046,10 +28088,10 @@
         <v>425</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="E429" s="2">
         <v>1</v>
@@ -28099,10 +28141,10 @@
         <v>426</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="E430" s="2">
         <v>1</v>
@@ -28152,10 +28194,10 @@
         <v>427</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="E431" s="2">
         <v>1</v>
@@ -28205,10 +28247,10 @@
         <v>428</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="E432" s="2">
         <v>1</v>
@@ -28258,10 +28300,10 @@
         <v>429</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="E433" s="2">
         <v>1</v>
@@ -28311,10 +28353,10 @@
         <v>430</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="E434" s="2">
         <v>1</v>
@@ -28364,10 +28406,10 @@
         <v>431</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="E435" s="2">
         <v>1</v>
@@ -28417,10 +28459,10 @@
         <v>432</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="E436" s="2">
         <v>1</v>
@@ -28470,10 +28512,10 @@
         <v>433</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="E437" s="2">
         <v>1</v>
@@ -28523,10 +28565,10 @@
         <v>434</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="E438" s="2">
         <v>1</v>
@@ -28576,10 +28618,10 @@
         <v>435</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="E439" s="2">
         <v>1</v>
@@ -28629,10 +28671,10 @@
         <v>436</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="E440" s="2">
         <v>1</v>
@@ -28682,10 +28724,10 @@
         <v>437</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="E441" s="2">
         <v>1</v>
@@ -28735,10 +28777,10 @@
         <v>438</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="E442" s="2">
         <v>1</v>
@@ -28788,10 +28830,10 @@
         <v>439</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="E443" s="2">
         <v>1</v>
@@ -28841,10 +28883,10 @@
         <v>440</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="E444" s="2">
         <v>1</v>
@@ -28894,10 +28936,10 @@
         <v>441</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="E445" s="2">
         <v>1</v>
@@ -28947,10 +28989,10 @@
         <v>442</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="E446" s="2">
         <v>1</v>
@@ -29000,10 +29042,10 @@
         <v>443</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="E447" s="2">
         <v>1</v>
@@ -29053,10 +29095,10 @@
         <v>444</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="E448" s="2">
         <v>1</v>
@@ -29106,10 +29148,10 @@
         <v>445</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="E449" s="2">
         <v>1</v>
@@ -29159,10 +29201,10 @@
         <v>446</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="E450" s="2">
         <v>1</v>
@@ -29212,10 +29254,10 @@
         <v>447</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="E451" s="2">
         <v>1</v>
@@ -29265,10 +29307,10 @@
         <v>448</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="E452" s="2">
         <v>1</v>
@@ -29318,10 +29360,10 @@
         <v>449</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E453" s="2">
         <v>1</v>
@@ -29371,10 +29413,10 @@
         <v>450</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="E454" s="2">
         <v>1</v>
@@ -29424,10 +29466,10 @@
         <v>451</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E455" s="2">
         <v>1</v>
@@ -29477,10 +29519,10 @@
         <v>452</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E456" s="2">
         <v>1</v>
@@ -29530,10 +29572,10 @@
         <v>453</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E457" s="2">
         <v>1</v>
@@ -29583,10 +29625,10 @@
         <v>454</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="E458" s="2">
         <v>1</v>
@@ -29636,10 +29678,10 @@
         <v>455</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="E459" s="2">
         <v>1</v>
@@ -29689,10 +29731,10 @@
         <v>456</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="E460" s="2">
         <v>1</v>
@@ -29742,10 +29784,10 @@
         <v>457</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E461" s="2">
         <v>1</v>
@@ -29795,10 +29837,10 @@
         <v>458</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E462" s="2">
         <v>1</v>
@@ -29848,10 +29890,10 @@
         <v>459</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="C463" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E463" s="2">
         <v>1</v>
@@ -29901,10 +29943,10 @@
         <v>460</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="C464" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E464" s="2">
         <v>1</v>
@@ -29954,10 +29996,10 @@
         <v>461</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="C465" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E465" s="2">
         <v>1</v>
@@ -30007,10 +30049,10 @@
         <v>462</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E466" s="2">
         <v>1</v>
@@ -30060,10 +30102,10 @@
         <v>463</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E467" s="2">
         <v>1</v>
@@ -30113,10 +30155,10 @@
         <v>464</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="E468" s="2">
         <v>1</v>
@@ -30166,10 +30208,10 @@
         <v>465</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="E469" s="2">
         <v>1</v>
@@ -30219,10 +30261,10 @@
         <v>466</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E470" s="2">
         <v>1</v>
@@ -30272,10 +30314,10 @@
         <v>467</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="E471" s="2">
         <v>1</v>
@@ -30325,10 +30367,10 @@
         <v>468</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="E472" s="2">
         <v>1</v>
@@ -30378,10 +30420,10 @@
         <v>469</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="E473" s="2">
         <v>1</v>
@@ -30431,10 +30473,10 @@
         <v>470</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="E474" s="2">
         <v>1</v>
@@ -30484,10 +30526,10 @@
         <v>471</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="C475" s="2" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="E475" s="2">
         <v>1</v>
@@ -30537,10 +30579,10 @@
         <v>472</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="C476" s="2" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="E476" s="2">
         <v>1</v>
@@ -30590,10 +30632,10 @@
         <v>473</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="E477" s="2">
         <v>1</v>
@@ -30620,7 +30662,7 @@
         <v>5</v>
       </c>
       <c r="R477" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T477" s="2">
         <v>30100</v>
@@ -30646,10 +30688,10 @@
         <v>474</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="E478" s="2">
         <v>1</v>
@@ -30699,10 +30741,10 @@
         <v>475</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="C479" s="2" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="E479" s="2">
         <v>1</v>
@@ -30752,10 +30794,10 @@
         <v>476</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="E480" s="2">
         <v>1</v>
@@ -30805,10 +30847,10 @@
         <v>477</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="E481" s="2">
         <v>1</v>
@@ -30858,10 +30900,10 @@
         <v>478</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="E482" s="2">
         <v>1</v>
@@ -30911,10 +30953,10 @@
         <v>479</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="E483" s="2">
         <v>1</v>
@@ -30964,10 +31006,10 @@
         <v>480</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="C484" s="2" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="E484" s="2">
         <v>1</v>
@@ -30994,7 +31036,7 @@
         <v>5</v>
       </c>
       <c r="R484" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T484" s="2">
         <v>30100</v>
@@ -31020,10 +31062,10 @@
         <v>481</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="C485" s="2" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="E485" s="2">
         <v>1</v>
@@ -31050,7 +31092,7 @@
         <v>5</v>
       </c>
       <c r="R485" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T485" s="2">
         <v>30100</v>
@@ -31076,10 +31118,10 @@
         <v>482</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="E486" s="2">
         <v>1</v>
@@ -31129,10 +31171,10 @@
         <v>483</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="E487" s="2">
         <v>1</v>
@@ -31182,10 +31224,10 @@
         <v>484</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E488" s="2">
         <v>1</v>
@@ -31235,10 +31277,10 @@
         <v>485</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="E489" s="2">
         <v>1</v>
@@ -31288,10 +31330,10 @@
         <v>486</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E490" s="2">
         <v>1</v>
@@ -31341,10 +31383,10 @@
         <v>487</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E491" s="2">
         <v>1</v>
@@ -31394,10 +31436,10 @@
         <v>488</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="E492" s="2">
         <v>1</v>
@@ -31447,10 +31489,10 @@
         <v>489</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E493" s="2">
         <v>1</v>
@@ -31500,10 +31542,10 @@
         <v>490</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="E494" s="2">
         <v>1</v>
@@ -31553,10 +31595,10 @@
         <v>491</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="E495" s="2">
         <v>1</v>
@@ -31606,10 +31648,10 @@
         <v>492</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="E496" s="2">
         <v>1</v>
@@ -31659,10 +31701,10 @@
         <v>493</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="E497" s="2">
         <v>1</v>
@@ -31689,7 +31731,7 @@
         <v>5</v>
       </c>
       <c r="R497" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T497" s="2">
         <v>30100</v>
@@ -31715,10 +31757,10 @@
         <v>494</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="E498" s="2">
         <v>1</v>
@@ -31768,10 +31810,10 @@
         <v>495</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="E499" s="2">
         <v>1</v>
@@ -31821,10 +31863,10 @@
         <v>496</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="E500" s="2">
         <v>1</v>
@@ -31874,10 +31916,10 @@
         <v>497</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E501" s="2">
         <v>1</v>
@@ -31927,10 +31969,10 @@
         <v>498</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E502" s="2">
         <v>1</v>
@@ -31980,10 +32022,10 @@
         <v>499</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="E503" s="2">
         <v>1</v>
@@ -32033,10 +32075,10 @@
         <v>500</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="E504" s="2">
         <v>1</v>
@@ -32086,10 +32128,10 @@
         <v>501</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="E505" s="2">
         <v>1</v>
@@ -32139,10 +32181,10 @@
         <v>502</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="E506" s="2">
         <v>1</v>
@@ -32192,10 +32234,10 @@
         <v>503</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="C507" s="2" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="E507" s="2">
         <v>1</v>
@@ -32245,10 +32287,10 @@
         <v>504</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="C508" s="2" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="E508" s="2">
         <v>1</v>
@@ -32298,10 +32340,10 @@
         <v>505</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="C509" s="2" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="E509" s="2">
         <v>1</v>
@@ -32351,10 +32393,10 @@
         <v>506</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="C510" s="2" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="E510" s="2">
         <v>1</v>
@@ -32404,10 +32446,10 @@
         <v>507</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="E511" s="2">
         <v>3.5</v>
@@ -32457,10 +32499,10 @@
         <v>508</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="C512" s="2" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="E512" s="2">
         <v>1</v>
@@ -32487,13 +32529,13 @@
         <v>30</v>
       </c>
       <c r="N512" s="2" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="P512" s="2">
         <v>8</v>
       </c>
       <c r="R512" s="2" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="T512" s="2">
         <v>31000</v>
@@ -32519,10 +32561,10 @@
         <v>509</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="C513" s="2" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="E513" s="2">
         <v>1</v>
@@ -32572,10 +32614,10 @@
         <v>510</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="C514" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E514" s="2">
         <v>1</v>
@@ -32625,10 +32667,10 @@
         <v>511</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="C515" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E515" s="2">
         <v>2</v>
@@ -32655,7 +32697,7 @@
         <v>10</v>
       </c>
       <c r="S515" s="2" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="T515" s="2">
         <v>32000</v>
@@ -32681,10 +32723,10 @@
         <v>512</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="C516" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="E516" s="2">
         <v>3</v>
@@ -32711,7 +32753,7 @@
         <v>10</v>
       </c>
       <c r="S516" s="2" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="T516" s="2">
         <v>32000</v>
@@ -32737,10 +32779,10 @@
         <v>513</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="C517" s="2" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="E517" s="2">
         <v>1</v>
@@ -32767,16 +32809,16 @@
         <v>30</v>
       </c>
       <c r="N517" s="2" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="P517" s="2">
         <v>8</v>
       </c>
       <c r="R517" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="S517" s="2" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="T517" s="2">
         <v>32000</v>
@@ -32802,10 +32844,10 @@
         <v>514</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="C518" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="E518" s="2">
         <v>5</v>
@@ -32855,10 +32897,10 @@
         <v>515</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="C519" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E519" s="2">
         <v>1.5</v>
@@ -32885,7 +32927,7 @@
         <v>10</v>
       </c>
       <c r="S519" s="2" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="T519" s="2">
         <v>32000</v>
@@ -32911,10 +32953,10 @@
         <v>516</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="E520" s="2">
         <v>2</v>
@@ -32941,7 +32983,7 @@
         <v>10</v>
       </c>
       <c r="S520" s="2" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="T520" s="2">
         <v>32000</v>
@@ -32967,10 +33009,10 @@
         <v>517</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="C521" s="2" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E521" s="2">
         <v>1.5</v>
@@ -32997,16 +33039,16 @@
         <v>30</v>
       </c>
       <c r="N521" s="2" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="P521" s="2">
         <v>8</v>
       </c>
       <c r="R521" s="2" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="S521" s="2" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="T521" s="2">
         <v>32000</v>
@@ -33035,10 +33077,10 @@
         <v>518</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="E522" s="2">
         <v>1.5</v>
@@ -33065,16 +33107,16 @@
         <v>30</v>
       </c>
       <c r="N522" s="2" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="P522" s="2">
         <v>8</v>
       </c>
       <c r="R522" s="2" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="S522" s="2" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="T522" s="2">
         <v>32000</v>
@@ -33103,10 +33145,10 @@
         <v>519</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="C523" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E523" s="2">
         <v>1.5</v>
@@ -33133,7 +33175,7 @@
         <v>10</v>
       </c>
       <c r="S523" s="2" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="T523" s="2">
         <v>32000</v>
@@ -33159,10 +33201,10 @@
         <v>520</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="C524" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E524" s="2">
         <v>1.5</v>
@@ -33189,7 +33231,7 @@
         <v>10</v>
       </c>
       <c r="S524" s="2" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="T524" s="2">
         <v>32000</v>
@@ -33215,10 +33257,10 @@
         <v>521</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="C525" s="2" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="E525" s="2">
         <v>1.2</v>
@@ -33245,7 +33287,7 @@
         <v>30</v>
       </c>
       <c r="S525" s="2" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="T525" s="2">
         <v>32000</v>
@@ -33271,10 +33313,10 @@
         <v>522</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="C526" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E526" s="2">
         <v>0.5</v>
@@ -33301,16 +33343,16 @@
         <v>30</v>
       </c>
       <c r="N526" s="2" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="P526" s="2">
         <v>8</v>
       </c>
       <c r="R526" s="2" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="S526" s="2" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="T526" s="2">
         <v>32000</v>
@@ -33336,10 +33378,10 @@
         <v>523</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="C527" s="2" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="E527" s="2">
         <v>1</v>
@@ -33366,7 +33408,7 @@
         <v>10</v>
       </c>
       <c r="S527" s="2" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="T527" s="2">
         <v>32000</v>
@@ -33392,10 +33434,10 @@
         <v>524</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="C528" s="2" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="E528" s="2">
         <v>1.5</v>
@@ -33422,16 +33464,16 @@
         <v>30</v>
       </c>
       <c r="N528" s="2" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="P528" s="2">
         <v>8</v>
       </c>
       <c r="R528" s="2" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="S528" s="2" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="T528" s="2">
         <v>32000</v>
@@ -33460,10 +33502,10 @@
         <v>525</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="C529" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E529" s="2">
         <v>1.5</v>
@@ -33490,16 +33532,16 @@
         <v>30</v>
       </c>
       <c r="N529" s="2" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="P529" s="2">
         <v>8</v>
       </c>
       <c r="R529" s="2" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="S529" s="2" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="T529" s="2">
         <v>32000</v>
@@ -33528,10 +33570,10 @@
         <v>526</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="C530" s="2" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="E530" s="2">
         <v>1.5</v>
@@ -33558,13 +33600,13 @@
         <v>30</v>
       </c>
       <c r="N530" s="2" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="P530" s="2">
         <v>8</v>
       </c>
       <c r="R530" s="2" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="T530" s="2">
         <v>32000</v>
@@ -33593,10 +33635,10 @@
         <v>527</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="C531" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E531" s="2">
         <v>1.5</v>
@@ -33623,13 +33665,13 @@
         <v>30</v>
       </c>
       <c r="N531" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P531" s="2">
         <v>8</v>
       </c>
       <c r="R531" s="2" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="T531" s="2">
         <v>32000</v>
@@ -33655,10 +33697,10 @@
         <v>528</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E532" s="2">
         <v>1.2</v>
@@ -33708,10 +33750,10 @@
         <v>529</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="C533" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E533" s="2">
         <v>7</v>
@@ -33761,10 +33803,10 @@
         <v>530</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="C534" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E534" s="2">
         <v>1.2</v>
@@ -33814,10 +33856,10 @@
         <v>531</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="C535" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E535" s="2">
         <v>1.2</v>
@@ -33867,10 +33909,10 @@
         <v>532</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="C536" s="2" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="E536" s="2">
         <v>1.2</v>
@@ -33920,10 +33962,10 @@
         <v>533</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="C537" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E537" s="2">
         <v>1</v>
@@ -33950,13 +33992,13 @@
         <v>30</v>
       </c>
       <c r="N537" s="2" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="P537" s="2">
         <v>8</v>
       </c>
       <c r="R537" s="2" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="T537" s="2">
         <v>33000</v>
@@ -33982,10 +34024,10 @@
         <v>534</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="C538" s="2" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="E538" s="2">
         <v>1</v>
@@ -34035,10 +34077,10 @@
         <v>535</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="C539" s="2" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="E539" s="2">
         <v>1</v>
@@ -34065,13 +34107,13 @@
         <v>30</v>
       </c>
       <c r="N539" s="2" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="P539" s="2">
         <v>8</v>
       </c>
       <c r="R539" s="2" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="T539" s="2">
         <v>34000</v>
@@ -34097,10 +34139,10 @@
         <v>536</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="C540" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E540" s="2">
         <v>1.5</v>
@@ -34127,13 +34169,13 @@
         <v>30</v>
       </c>
       <c r="N540" s="2" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="P540" s="2">
         <v>8</v>
       </c>
       <c r="R540" s="2" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="T540" s="2">
         <v>35000</v>
@@ -34162,10 +34204,10 @@
         <v>537</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="C541" s="2" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="E541" s="2">
         <v>1.2</v>
@@ -34192,13 +34234,13 @@
         <v>30</v>
       </c>
       <c r="N541" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P541" s="2">
         <v>8</v>
       </c>
       <c r="R541" s="2" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="T541" s="2">
         <v>35000</v>
@@ -34224,10 +34266,10 @@
         <v>538</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="C542" s="2" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="E542" s="2">
         <v>1.2</v>
@@ -34254,13 +34296,13 @@
         <v>30</v>
       </c>
       <c r="N542" s="2" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="P542" s="2">
         <v>8</v>
       </c>
       <c r="R542" s="2" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="T542" s="2">
         <v>35000</v>
@@ -34289,10 +34331,10 @@
         <v>539</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="C543" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E543" s="2">
         <v>1.5</v>
@@ -34319,13 +34361,13 @@
         <v>30</v>
       </c>
       <c r="N543" s="2" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="P543" s="2">
         <v>8</v>
       </c>
       <c r="R543" s="2" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="T543" s="2">
         <v>36000</v>
@@ -34351,10 +34393,10 @@
         <v>540</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="C544" s="2" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="E544" s="2">
         <v>1</v>
@@ -34404,10 +34446,10 @@
         <v>541</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="C545" s="2" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="E545" s="2">
         <v>5</v>
@@ -34457,10 +34499,10 @@
         <v>542</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="C546" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E546" s="2">
         <v>4</v>
@@ -34510,10 +34552,10 @@
         <v>543</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="C547" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E547" s="2">
         <v>5</v>
@@ -34563,10 +34605,10 @@
         <v>544</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="C548" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E548" s="2">
         <v>6</v>
@@ -34616,10 +34658,10 @@
         <v>545</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="C549" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E549" s="2">
         <v>8</v>
@@ -34669,10 +34711,10 @@
         <v>546</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="C550" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E550" s="2">
         <v>9</v>
@@ -34722,10 +34764,10 @@
         <v>547</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="C551" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E551" s="2">
         <v>10</v>
@@ -34775,10 +34817,10 @@
         <v>548</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="C552" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="E552" s="2">
         <v>1</v>
@@ -34805,13 +34847,13 @@
         <v>30</v>
       </c>
       <c r="N552" s="2" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="P552" s="2">
         <v>8</v>
       </c>
       <c r="R552" s="2" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="T552" s="2">
         <v>50000</v>
@@ -34840,10 +34882,10 @@
         <v>549</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="C553" s="2" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="E553" s="2">
         <v>1</v>
@@ -34893,10 +34935,10 @@
         <v>550</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="C554" s="2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E554" s="2">
         <v>1</v>
@@ -34948,6 +34990,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/SceneServer/tools/Xlsx/kx_monster.xlsx
+++ b/SceneServer/tools/Xlsx/kx_monster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14175"/>
+    <workbookView windowHeight="13800"/>
   </bookViews>
   <sheets>
     <sheet name="kx_monster" sheetId="2" r:id="rId1"/>
@@ -4117,7 +4117,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="G490" sqref="G490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1"/>
@@ -31442,7 +31442,7 @@
         <v>929</v>
       </c>
       <c r="E492" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F492" s="2">
         <v>301</v>
